--- a/WorkBot/main/backend/orders/OrderFiles/Equal Exchange/Equal Exchange_EASTHILL_20250228.xlsx
+++ b/WorkBot/main/backend/orders/OrderFiles/Equal Exchange/Equal Exchange_EASTHILL_20250228.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E3"/>
+  <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -451,52 +451,25 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>10400</t>
+          <t>10029</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Equal Exchange - One World</t>
+          <t>Equal Exchange - Espresso, Decaf</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>71.50</t>
+          <t>94.00</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
-        <is>
-          <t>357.50</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>10029</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>Equal Exchange - Espresso, Decaf</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>94.00</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
         <is>
           <t>188.00</t>
         </is>
